--- a/Documenti/CPM.xlsx
+++ b/Documenti/CPM.xlsx
@@ -90,13 +90,13 @@
     <t>Dur: 7</t>
   </si>
   <si>
-    <t>Dur: 2</t>
-  </si>
-  <si>
-    <t>Dur: 5</t>
-  </si>
-  <si>
     <t>Start Day: 26/02/2018</t>
+  </si>
+  <si>
+    <t>Dur: 14</t>
+  </si>
+  <si>
+    <t>Dur: 35</t>
   </si>
 </sst>
 </file>
@@ -630,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E4" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E5" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -844,16 +844,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="13">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E7" s="10">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="13">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C8" s="10">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E8" s="10">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
@@ -1067,21 +1067,21 @@
         <v>14</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1175,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1259,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1299,6 +1299,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1310,8 +1311,27 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+    </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
